--- a/MessageSpecification.xlsx
+++ b/MessageSpecification.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>MesageType</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>sends HashMap&lt;String, String[]&gt; afterwards</t>
+  </si>
+  <si>
+    <t>&lt;partnerName&gt;</t>
+  </si>
+  <si>
+    <t>OPEN_PRIVATE</t>
+  </si>
+  <si>
+    <t>CLOSE_PRIVATE</t>
   </si>
 </sst>
 </file>
@@ -479,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK22"/>
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -769,54 +778,78 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="1" t="b">
+      <c r="E22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E21" s="1" t="b">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
